--- a/tests/code_profiling_results/code_profiling_results.xlsx
+++ b/tests/code_profiling_results/code_profiling_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\project\code_profiling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\project\LEA-RL\gym-electric-motor\tests\code_profiling_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083D06E8-5D76-4C36-9F32-CB82F3711D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6F9F09-BEDD-4E42-988E-5A471A035C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6887112B-992C-4A09-88D1-ED04B19EB565}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
   <si>
     <t>Own time</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Own time:</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +577,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1"/>
     </row>
